--- a/aiurt-module-system/src/main/resources/templates/csSubsystemImportDTO.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csSubsystemImportDTO.xlsx
@@ -54,6 +54,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>子系统信息导入错误清单</t>
     </r>
     <r>
@@ -89,7 +97,7 @@
     <t>错误原因</t>
   </si>
   <si>
-    <t>{{$fe:maplist t.major</t>
+    <t>{{fe:maplist t.major</t>
   </si>
   <si>
     <t>t.systemcode</t>
@@ -1184,7 +1192,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
